--- a/UI기획/데이터.xlsx
+++ b/UI기획/데이터.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>속성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,18 +269,6 @@
   </si>
   <si>
     <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPlayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어가 가지고 있는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +655,7 @@
   <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E8" sqref="E6:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -712,9 +700,6 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>61</v>
-      </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
@@ -747,9 +732,7 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="H4" s="2"/>
       <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
@@ -776,9 +759,7 @@
       <c r="G5">
         <v>1300</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="H5" s="2"/>
       <c r="K5" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,9 +789,7 @@
       <c r="G6">
         <v>7300</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="H6" s="2"/>
       <c r="K6" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,9 +850,6 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
       <c r="K9" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,9 +876,7 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="F10" s="2"/>
       <c r="K10" s="1" t="s">
         <v>15</v>
       </c>
@@ -929,15 +903,7 @@
       <c r="E11">
         <v>1300</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" t="s">
-        <v>63</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -952,9 +918,7 @@
       <c r="E12">
         <v>7300</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
